--- a/Tools/Luban/MiniDesignerConfigsTemplate/Datas/__tables__.xlsx
+++ b/Tools/Luban/MiniDesignerConfigsTemplate/Datas/__tables__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -106,22 +106,13 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>Datas.TbSkillCfg</t>
-  </si>
-  <si>
-    <t>Skills.SkillCfg</t>
-  </si>
-  <si>
-    <t>datas/skillcfg.xlsx</t>
-  </si>
-  <si>
-    <t>Datas.TbWeapon</t>
-  </si>
-  <si>
-    <t>Equips.Weapon</t>
-  </si>
-  <si>
-    <t>datas/equips.xlsx</t>
+    <t>Datas.TbItemCfg</t>
+  </si>
+  <si>
+    <t>ItemCfg</t>
+  </si>
+  <si>
+    <t>datas/itemcfg.xlsx</t>
   </si>
 </sst>
 </file>
@@ -129,10 +120,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -151,14 +142,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,29 +181,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,16 +194,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,38 +248,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,29 +277,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -302,181 +293,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,6 +496,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -516,21 +516,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,23 +538,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,11 +564,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,148 +598,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1078,13 +1069,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
   <cols>
     <col min="2" max="2" width="29.125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
@@ -1201,24 +1192,10 @@
         <v>31</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/Luban/MiniDesignerConfigsTemplate/Datas/__tables__.xlsx
+++ b/Tools/Luban/MiniDesignerConfigsTemplate/Datas/__tables__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>##var</t>
   </si>
@@ -104,6 +104,15 @@
   </si>
   <si>
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
+  </si>
+  <si>
+    <t>Datas.TbItemEffectCfg</t>
+  </si>
+  <si>
+    <t>ItemEffectCfg</t>
+  </si>
+  <si>
+    <t>datas/itemEffectCfg.xlsx</t>
   </si>
   <si>
     <t>Datas.TbItemCfg</t>
@@ -120,10 +129,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -141,6 +150,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -150,6 +182,84 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,15 +273,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -180,101 +281,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -293,175 +302,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,11 +505,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,34 +554,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,21 +575,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,153 +593,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1069,17 +1078,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F8" sqref="F8:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
     <col min="2" max="2" width="29.125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="4" max="4" width="42.125" customWidth="1"/>
     <col min="5" max="5" width="24.375" customWidth="1"/>
     <col min="6" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="18.375" customWidth="1"/>
@@ -1198,6 +1207,20 @@
         <v>32</v>
       </c>
     </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
